--- a/20160531-jobs/builds/development/data/maindata.xlsx
+++ b/20160531-jobs/builds/development/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="640" windowWidth="24440" windowHeight="11500" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="640" windowWidth="25540" windowHeight="13980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="jobs" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3651" uniqueCount="1503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3657" uniqueCount="1509">
   <si>
     <t>SOCCode</t>
   </si>
@@ -4529,13 +4529,31 @@
   </si>
   <si>
     <t>Source: Minnesota Department of Employment and Economic Development</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Minnesota Department of Employment and Economic Development</t>
+  </si>
+  <si>
+    <t>jobs</t>
+  </si>
+  <si>
+    <t>Growth rates of occupations by industry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4554,6 +4572,13 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4613,7 +4638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4626,6 +4651,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39152,22 +39178,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1">
+      <c r="A6" s="6" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1506</v>
       </c>
     </row>
   </sheetData>

--- a/20160531-jobs/builds/development/data/maindata.xlsx
+++ b/20160531-jobs/builds/development/data/maindata.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="640" windowWidth="25540" windowHeight="13980" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="640" windowWidth="25540" windowHeight="13980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="jobs" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="3" r:id="rId2"/>
+    <sheet name="layout" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3657" uniqueCount="1509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3688" uniqueCount="1524">
   <si>
     <t>SOCCode</t>
   </si>
@@ -4547,13 +4548,58 @@
   </si>
   <si>
     <t>Growth rates of occupations by industry</t>
+  </si>
+  <si>
+    <t>Job unique ID</t>
+  </si>
+  <si>
+    <t>Job title</t>
+  </si>
+  <si>
+    <t>Type of job by category</t>
+  </si>
+  <si>
+    <t>Education level required</t>
+  </si>
+  <si>
+    <t>Skill level required</t>
+  </si>
+  <si>
+    <t>Median hourly wage in Minnesota</t>
+  </si>
+  <si>
+    <t>Estimated yearly number of employees</t>
+  </si>
+  <si>
+    <t>Projected number of employees</t>
+  </si>
+  <si>
+    <t>Percent change in number of employees</t>
+  </si>
+  <si>
+    <t>Numeric change In number of empoylees</t>
+  </si>
+  <si>
+    <t>Number of new hires</t>
+  </si>
+  <si>
+    <t>Number of replacement hires</t>
+  </si>
+  <si>
+    <t>Total number of hires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of all employees that are new hires </t>
+  </si>
+  <si>
+    <t>Percent of employees that are replacement hires</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4578,6 +4624,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4634,9 +4696,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4653,7 +4719,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
@@ -4956,8 +5026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O728"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -39168,6 +39238,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -39180,8 +39251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -39223,6 +39294,155 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
